--- a/posesiones/1381315.xlsx
+++ b/posesiones/1381315.xlsx
@@ -1883,10 +1883,10 @@
         <v>1</v>
       </c>
       <c r="P3" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q3">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:18">
@@ -1927,7 +1927,7 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:18">
@@ -1977,7 +1977,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:18">
@@ -2027,7 +2027,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:18">
@@ -2074,7 +2074,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:18">
@@ -2121,7 +2121,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:18">
@@ -2171,7 +2171,7 @@
         <v>1</v>
       </c>
       <c r="Q9">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="R9">
         <v>21</v>
@@ -2221,7 +2221,7 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:18">
@@ -2268,7 +2268,7 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:18">
@@ -2315,7 +2315,7 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:18">
@@ -2362,7 +2362,7 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:18">
@@ -2412,7 +2412,7 @@
         <v>1</v>
       </c>
       <c r="Q14">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="R14">
         <v>10</v>
@@ -2465,7 +2465,7 @@
         <v>1</v>
       </c>
       <c r="Q15">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="R15">
         <v>28</v>
@@ -2518,7 +2518,7 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="17" spans="1:18">
@@ -2568,7 +2568,7 @@
         <v>1</v>
       </c>
       <c r="Q17">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="R17">
         <v>7</v>
@@ -2621,7 +2621,7 @@
         <v>1</v>
       </c>
       <c r="Q18">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="R18">
         <v>20</v>
@@ -2671,7 +2671,7 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="20" spans="1:18">
@@ -2721,7 +2721,7 @@
         <v>1</v>
       </c>
       <c r="Q20">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="R20">
         <v>16</v>
@@ -2774,7 +2774,7 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="22" spans="1:18">
@@ -2824,7 +2824,7 @@
         <v>1</v>
       </c>
       <c r="Q22">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="R22">
         <v>19</v>
@@ -2877,7 +2877,7 @@
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="24" spans="1:18">
@@ -2924,7 +2924,7 @@
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="25" spans="1:18">
@@ -2977,7 +2977,7 @@
         <v>1</v>
       </c>
       <c r="Q25">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="R25">
         <v>4</v>
@@ -3027,7 +3027,7 @@
         <v>0</v>
       </c>
       <c r="Q26">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="27" spans="1:18">
@@ -3077,7 +3077,7 @@
         <v>1</v>
       </c>
       <c r="Q27">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="R27">
         <v>16</v>
@@ -3130,7 +3130,7 @@
         <v>0</v>
       </c>
       <c r="Q28">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="29" spans="1:18">
@@ -3180,7 +3180,7 @@
         <v>1</v>
       </c>
       <c r="Q29">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="R29">
         <v>7</v>
@@ -3233,7 +3233,7 @@
         <v>0</v>
       </c>
       <c r="Q30">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="31" spans="1:18">
@@ -3280,7 +3280,7 @@
         <v>0</v>
       </c>
       <c r="Q31">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="32" spans="1:18">
@@ -3330,7 +3330,7 @@
         <v>0</v>
       </c>
       <c r="Q32">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="33" spans="1:18">
@@ -3377,7 +3377,7 @@
         <v>0</v>
       </c>
       <c r="Q33">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="34" spans="1:18">
@@ -3424,7 +3424,7 @@
         <v>0</v>
       </c>
       <c r="Q34">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="35" spans="1:18">
@@ -3471,7 +3471,7 @@
         <v>0</v>
       </c>
       <c r="Q35">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="36" spans="1:18">
@@ -3521,7 +3521,7 @@
         <v>1</v>
       </c>
       <c r="Q36">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="R36">
         <v>13</v>
@@ -3571,7 +3571,7 @@
         <v>0</v>
       </c>
       <c r="Q37">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="38" spans="1:18">
@@ -3618,7 +3618,7 @@
         <v>0</v>
       </c>
       <c r="Q38">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="39" spans="1:18">
@@ -3665,7 +3665,7 @@
         <v>0</v>
       </c>
       <c r="Q39">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="40" spans="1:18">
@@ -3715,7 +3715,7 @@
         <v>1</v>
       </c>
       <c r="Q40">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="R40">
         <v>12</v>
@@ -3765,7 +3765,7 @@
         <v>0</v>
       </c>
       <c r="Q41">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="42" spans="1:18">
@@ -3812,7 +3812,7 @@
         <v>0</v>
       </c>
       <c r="Q42">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="43" spans="1:18">
@@ -3862,7 +3862,7 @@
         <v>0</v>
       </c>
       <c r="Q43">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="44" spans="1:18">
@@ -3912,7 +3912,7 @@
         <v>1</v>
       </c>
       <c r="Q44">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="R44">
         <v>23</v>
@@ -3965,7 +3965,7 @@
         <v>0</v>
       </c>
       <c r="Q45">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="46" spans="1:18">
@@ -4015,7 +4015,7 @@
         <v>1</v>
       </c>
       <c r="Q46">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="R46">
         <v>7</v>
@@ -4065,7 +4065,7 @@
         <v>0</v>
       </c>
       <c r="Q47">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="48" spans="1:18">
@@ -4112,7 +4112,7 @@
         <v>0</v>
       </c>
       <c r="Q48">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="49" spans="1:18">
@@ -4159,7 +4159,7 @@
         <v>0</v>
       </c>
       <c r="Q49">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="50" spans="1:18">
@@ -4209,7 +4209,7 @@
         <v>1</v>
       </c>
       <c r="Q50">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="R50">
         <v>24</v>
@@ -4262,7 +4262,7 @@
         <v>1</v>
       </c>
       <c r="Q51">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="R51">
         <v>15</v>
@@ -4312,7 +4312,7 @@
         <v>0</v>
       </c>
       <c r="Q52">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="53" spans="1:18">
@@ -4362,7 +4362,7 @@
         <v>1</v>
       </c>
       <c r="Q53">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="R53">
         <v>6</v>
@@ -4415,7 +4415,7 @@
         <v>0</v>
       </c>
       <c r="Q54">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="55" spans="1:18">
@@ -4465,7 +4465,7 @@
         <v>1</v>
       </c>
       <c r="Q55">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="R55">
         <v>6</v>
@@ -4515,7 +4515,7 @@
         <v>0</v>
       </c>
       <c r="Q56">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="57" spans="1:18">
@@ -4562,7 +4562,7 @@
         <v>0</v>
       </c>
       <c r="Q57">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="58" spans="1:18">
@@ -4609,7 +4609,7 @@
         <v>0</v>
       </c>
       <c r="Q58">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="59" spans="1:18">
@@ -4656,7 +4656,7 @@
         <v>0</v>
       </c>
       <c r="Q59">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="60" spans="1:18">
@@ -4703,7 +4703,7 @@
         <v>0</v>
       </c>
       <c r="Q60">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="61" spans="1:18">
@@ -4753,7 +4753,7 @@
         <v>1</v>
       </c>
       <c r="Q61">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="R61">
         <v>24</v>
@@ -4803,7 +4803,7 @@
         <v>0</v>
       </c>
       <c r="Q62">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="63" spans="1:18">
@@ -4850,7 +4850,7 @@
         <v>0</v>
       </c>
       <c r="Q63">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="64" spans="1:18">
@@ -4897,7 +4897,7 @@
         <v>0</v>
       </c>
       <c r="Q64">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="65" spans="1:18">
@@ -4944,7 +4944,7 @@
         <v>0</v>
       </c>
       <c r="Q65">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="66" spans="1:18">
@@ -4991,7 +4991,7 @@
         <v>0</v>
       </c>
       <c r="Q66">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="67" spans="1:18">
@@ -5041,7 +5041,7 @@
         <v>1</v>
       </c>
       <c r="Q67">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="R67">
         <v>34</v>
@@ -5091,7 +5091,7 @@
         <v>0</v>
       </c>
       <c r="Q68">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="69" spans="1:18">
@@ -5138,7 +5138,7 @@
         <v>0</v>
       </c>
       <c r="Q69">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="70" spans="1:18">
@@ -5191,7 +5191,7 @@
         <v>1</v>
       </c>
       <c r="Q70">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="R70">
         <v>22</v>
@@ -5241,7 +5241,7 @@
         <v>0</v>
       </c>
       <c r="Q71">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="72" spans="1:18">
@@ -5291,7 +5291,7 @@
         <v>1</v>
       </c>
       <c r="Q72">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="R72">
         <v>12</v>
@@ -5344,7 +5344,7 @@
         <v>1</v>
       </c>
       <c r="Q73">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="R73">
         <v>15</v>
@@ -5394,7 +5394,7 @@
         <v>0</v>
       </c>
       <c r="Q74">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="75" spans="1:18">
@@ -5444,7 +5444,7 @@
         <v>1</v>
       </c>
       <c r="Q75">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="R75">
         <v>5</v>
@@ -5497,7 +5497,7 @@
         <v>1</v>
       </c>
       <c r="Q76">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="R76">
         <v>19</v>
@@ -5547,7 +5547,7 @@
         <v>0</v>
       </c>
       <c r="Q77">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="78" spans="1:18">
@@ -5597,7 +5597,7 @@
         <v>1</v>
       </c>
       <c r="Q78">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="R78">
         <v>7</v>
@@ -5650,7 +5650,7 @@
         <v>1</v>
       </c>
       <c r="Q79">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="R79">
         <v>15</v>
@@ -5703,7 +5703,7 @@
         <v>0</v>
       </c>
       <c r="Q80">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="81" spans="1:18">
@@ -5753,7 +5753,7 @@
         <v>1</v>
       </c>
       <c r="Q81">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="R81">
         <v>9</v>
@@ -5803,7 +5803,7 @@
         <v>0</v>
       </c>
       <c r="Q82">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="83" spans="1:18">
@@ -5853,7 +5853,7 @@
         <v>0</v>
       </c>
       <c r="Q83">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="84" spans="1:18">
@@ -5903,7 +5903,7 @@
         <v>1</v>
       </c>
       <c r="Q84">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="R84">
         <v>32</v>
@@ -5953,7 +5953,7 @@
         <v>0</v>
       </c>
       <c r="Q85">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="86" spans="1:18">
@@ -6000,7 +6000,7 @@
         <v>0</v>
       </c>
       <c r="Q86">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="87" spans="1:18">
@@ -6047,7 +6047,7 @@
         <v>0</v>
       </c>
       <c r="Q87">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="88" spans="1:18">
@@ -6094,7 +6094,7 @@
         <v>0</v>
       </c>
       <c r="Q88">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="89" spans="1:18">
@@ -6141,7 +6141,7 @@
         <v>0</v>
       </c>
       <c r="Q89">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="90" spans="1:18">
@@ -6188,7 +6188,7 @@
         <v>0</v>
       </c>
       <c r="Q90">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="91" spans="1:18">
@@ -6238,7 +6238,7 @@
         <v>1</v>
       </c>
       <c r="Q91">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="R91">
         <v>25</v>
@@ -6288,7 +6288,7 @@
         <v>0</v>
       </c>
       <c r="Q92">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="93" spans="1:18">
@@ -6338,7 +6338,7 @@
         <v>1</v>
       </c>
       <c r="Q93">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="R93">
         <v>17</v>
@@ -6388,7 +6388,7 @@
         <v>0</v>
       </c>
       <c r="Q94">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="95" spans="1:18">
@@ -6435,7 +6435,7 @@
         <v>0</v>
       </c>
       <c r="Q95">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="96" spans="1:18">
@@ -6482,7 +6482,7 @@
         <v>0</v>
       </c>
       <c r="Q96">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="97" spans="1:18">
@@ -6529,7 +6529,7 @@
         <v>0</v>
       </c>
       <c r="Q97">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="98" spans="1:18">
@@ -6576,7 +6576,7 @@
         <v>0</v>
       </c>
       <c r="Q98">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="99" spans="1:18">
@@ -6626,7 +6626,7 @@
         <v>1</v>
       </c>
       <c r="Q99">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="R99">
         <v>8</v>
@@ -6676,7 +6676,7 @@
         <v>0</v>
       </c>
       <c r="Q100">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="101" spans="1:18">
@@ -6729,7 +6729,7 @@
         <v>1</v>
       </c>
       <c r="Q101">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="R101">
         <v>13</v>
@@ -6779,7 +6779,7 @@
         <v>0</v>
       </c>
       <c r="Q102">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="103" spans="1:18">
@@ -6829,7 +6829,7 @@
         <v>1</v>
       </c>
       <c r="Q103">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="R103">
         <v>10</v>
@@ -6879,7 +6879,7 @@
         <v>0</v>
       </c>
       <c r="Q104">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="105" spans="1:18">
@@ -6926,7 +6926,7 @@
         <v>0</v>
       </c>
       <c r="Q105">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="106" spans="1:18">
@@ -6973,7 +6973,7 @@
         <v>0</v>
       </c>
       <c r="Q106">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="107" spans="1:18">
@@ -7023,7 +7023,7 @@
         <v>0</v>
       </c>
       <c r="Q107">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="108" spans="1:18">
@@ -7073,7 +7073,7 @@
         <v>1</v>
       </c>
       <c r="Q108">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="R108">
         <v>21</v>
@@ -7123,7 +7123,7 @@
         <v>0</v>
       </c>
       <c r="Q109">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="110" spans="1:18">
@@ -7173,7 +7173,7 @@
         <v>1</v>
       </c>
       <c r="Q110">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="R110">
         <v>3</v>
@@ -7223,7 +7223,7 @@
         <v>0</v>
       </c>
       <c r="Q111">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="112" spans="1:18">
@@ -7270,7 +7270,7 @@
         <v>0</v>
       </c>
       <c r="Q112">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="113" spans="1:18">
@@ -7317,7 +7317,7 @@
         <v>0</v>
       </c>
       <c r="Q113">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="114" spans="1:18">
@@ -7364,7 +7364,7 @@
         <v>0</v>
       </c>
       <c r="Q114">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="115" spans="1:18">
@@ -7414,7 +7414,7 @@
         <v>1</v>
       </c>
       <c r="Q115">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="R115">
         <v>12</v>
@@ -7467,7 +7467,7 @@
         <v>0</v>
       </c>
       <c r="Q116">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="117" spans="1:18">
@@ -7514,7 +7514,7 @@
         <v>0</v>
       </c>
       <c r="Q117">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="118" spans="1:18">
@@ -7561,7 +7561,7 @@
         <v>0</v>
       </c>
       <c r="Q118">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="119" spans="1:18">
@@ -7608,7 +7608,7 @@
         <v>0</v>
       </c>
       <c r="Q119">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="120" spans="1:18">
@@ -7655,7 +7655,7 @@
         <v>0</v>
       </c>
       <c r="Q120">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="121" spans="1:18">
@@ -7705,7 +7705,7 @@
         <v>1</v>
       </c>
       <c r="Q121">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="R121">
         <v>29</v>
@@ -7755,7 +7755,7 @@
         <v>0</v>
       </c>
       <c r="Q122">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="123" spans="1:18">
@@ -7802,7 +7802,7 @@
         <v>0</v>
       </c>
       <c r="Q123">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="124" spans="1:18">
@@ -7849,7 +7849,7 @@
         <v>0</v>
       </c>
       <c r="Q124">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="125" spans="1:18">
@@ -7899,7 +7899,7 @@
         <v>1</v>
       </c>
       <c r="Q125">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="R125">
         <v>10</v>
@@ -7952,7 +7952,7 @@
         <v>1</v>
       </c>
       <c r="Q126">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="R126">
         <v>3</v>
@@ -7996,10 +7996,10 @@
         <v>1</v>
       </c>
       <c r="P127" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q127">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="128" spans="1:18">
@@ -8046,7 +8046,7 @@
         <v>0</v>
       </c>
       <c r="Q128">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="129" spans="1:18">
@@ -8093,7 +8093,7 @@
         <v>0</v>
       </c>
       <c r="Q129">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="130" spans="1:18">
@@ -8140,7 +8140,7 @@
         <v>0</v>
       </c>
       <c r="Q130">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="131" spans="1:18">
@@ -8187,7 +8187,7 @@
         <v>0</v>
       </c>
       <c r="Q131">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="132" spans="1:18">
@@ -8228,10 +8228,10 @@
         <v>1</v>
       </c>
       <c r="P132" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q132">
-        <v>43</v>
+        <v>40</v>
       </c>
     </row>
     <row r="133" spans="1:18">
@@ -8281,7 +8281,7 @@
         <v>1</v>
       </c>
       <c r="Q133">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="R133">
         <v>17</v>
@@ -8331,7 +8331,7 @@
         <v>0</v>
       </c>
       <c r="Q134">
-        <v>44</v>
+        <v>41</v>
       </c>
     </row>
     <row r="135" spans="1:18">
@@ -8378,7 +8378,7 @@
         <v>0</v>
       </c>
       <c r="Q135">
-        <v>44</v>
+        <v>41</v>
       </c>
     </row>
     <row r="136" spans="1:18">
@@ -8425,7 +8425,7 @@
         <v>0</v>
       </c>
       <c r="Q136">
-        <v>44</v>
+        <v>41</v>
       </c>
     </row>
     <row r="137" spans="1:18">
@@ -8475,7 +8475,7 @@
         <v>1</v>
       </c>
       <c r="Q137">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="R137">
         <v>0</v>
@@ -8528,7 +8528,7 @@
         <v>0</v>
       </c>
       <c r="Q138">
-        <v>45</v>
+        <v>42</v>
       </c>
     </row>
     <row r="139" spans="1:18">
@@ -8578,7 +8578,7 @@
         <v>1</v>
       </c>
       <c r="Q139">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="R139">
         <v>22</v>
@@ -8628,7 +8628,7 @@
         <v>0</v>
       </c>
       <c r="Q140">
-        <v>46</v>
+        <v>43</v>
       </c>
     </row>
     <row r="141" spans="1:18">
@@ -8675,7 +8675,7 @@
         <v>0</v>
       </c>
       <c r="Q141">
-        <v>46</v>
+        <v>43</v>
       </c>
     </row>
     <row r="142" spans="1:18">
@@ -8725,7 +8725,7 @@
         <v>0</v>
       </c>
       <c r="Q142">
-        <v>46</v>
+        <v>43</v>
       </c>
     </row>
     <row r="143" spans="1:18">
@@ -8772,7 +8772,7 @@
         <v>0</v>
       </c>
       <c r="Q143">
-        <v>46</v>
+        <v>43</v>
       </c>
     </row>
     <row r="144" spans="1:18">
@@ -8822,7 +8822,7 @@
         <v>0</v>
       </c>
       <c r="Q144">
-        <v>46</v>
+        <v>43</v>
       </c>
     </row>
     <row r="145" spans="1:18">
@@ -8872,7 +8872,7 @@
         <v>1</v>
       </c>
       <c r="Q145">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="R145">
         <v>25</v>
@@ -8925,7 +8925,7 @@
         <v>1</v>
       </c>
       <c r="Q146">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="R146">
         <v>15</v>
@@ -8975,7 +8975,7 @@
         <v>0</v>
       </c>
       <c r="Q147">
-        <v>48</v>
+        <v>45</v>
       </c>
     </row>
     <row r="148" spans="1:18">
@@ -9022,7 +9022,7 @@
         <v>0</v>
       </c>
       <c r="Q148">
-        <v>48</v>
+        <v>45</v>
       </c>
     </row>
     <row r="149" spans="1:18">
@@ -9072,7 +9072,7 @@
         <v>0</v>
       </c>
       <c r="Q149">
-        <v>48</v>
+        <v>45</v>
       </c>
     </row>
     <row r="150" spans="1:18">
@@ -9122,7 +9122,7 @@
         <v>1</v>
       </c>
       <c r="Q150">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="R150">
         <v>16</v>
@@ -9172,7 +9172,7 @@
         <v>0</v>
       </c>
       <c r="Q151">
-        <v>49</v>
+        <v>46</v>
       </c>
     </row>
     <row r="152" spans="1:18">
@@ -9222,7 +9222,7 @@
         <v>1</v>
       </c>
       <c r="Q152">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="R152">
         <v>16</v>
@@ -9275,7 +9275,7 @@
         <v>0</v>
       </c>
       <c r="Q153">
-        <v>50</v>
+        <v>47</v>
       </c>
     </row>
     <row r="154" spans="1:18">
@@ -9322,7 +9322,7 @@
         <v>0</v>
       </c>
       <c r="Q154">
-        <v>50</v>
+        <v>47</v>
       </c>
     </row>
     <row r="155" spans="1:18">
@@ -9369,7 +9369,7 @@
         <v>0</v>
       </c>
       <c r="Q155">
-        <v>50</v>
+        <v>47</v>
       </c>
     </row>
     <row r="156" spans="1:18">
@@ -9416,7 +9416,7 @@
         <v>0</v>
       </c>
       <c r="Q156">
-        <v>50</v>
+        <v>47</v>
       </c>
     </row>
     <row r="157" spans="1:18">
@@ -9463,7 +9463,7 @@
         <v>0</v>
       </c>
       <c r="Q157">
-        <v>50</v>
+        <v>47</v>
       </c>
     </row>
     <row r="158" spans="1:18">
@@ -9510,7 +9510,7 @@
         <v>0</v>
       </c>
       <c r="Q158">
-        <v>50</v>
+        <v>47</v>
       </c>
     </row>
     <row r="159" spans="1:18">
@@ -9560,7 +9560,7 @@
         <v>1</v>
       </c>
       <c r="Q159">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="R159">
         <v>13</v>
@@ -9610,7 +9610,7 @@
         <v>0</v>
       </c>
       <c r="Q160">
-        <v>51</v>
+        <v>48</v>
       </c>
     </row>
     <row r="161" spans="1:18">
@@ -9660,7 +9660,7 @@
         <v>1</v>
       </c>
       <c r="Q161">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="R161">
         <v>18</v>
@@ -9713,7 +9713,7 @@
         <v>0</v>
       </c>
       <c r="Q162">
-        <v>52</v>
+        <v>49</v>
       </c>
     </row>
     <row r="163" spans="1:18">
@@ -9763,7 +9763,7 @@
         <v>1</v>
       </c>
       <c r="Q163">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="R163">
         <v>21</v>
@@ -9816,7 +9816,7 @@
         <v>0</v>
       </c>
       <c r="Q164">
-        <v>53</v>
+        <v>50</v>
       </c>
     </row>
     <row r="165" spans="1:18">
@@ -9866,7 +9866,7 @@
         <v>1</v>
       </c>
       <c r="Q165">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="R165">
         <v>8</v>
@@ -9919,7 +9919,7 @@
         <v>0</v>
       </c>
       <c r="Q166">
-        <v>54</v>
+        <v>51</v>
       </c>
     </row>
     <row r="167" spans="1:18">
@@ -9969,7 +9969,7 @@
         <v>1</v>
       </c>
       <c r="Q167">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="R167">
         <v>19</v>
@@ -10019,7 +10019,7 @@
         <v>0</v>
       </c>
       <c r="Q168">
-        <v>55</v>
+        <v>52</v>
       </c>
     </row>
     <row r="169" spans="1:18">
@@ -10066,7 +10066,7 @@
         <v>0</v>
       </c>
       <c r="Q169">
-        <v>55</v>
+        <v>52</v>
       </c>
     </row>
     <row r="170" spans="1:18">
@@ -10113,7 +10113,7 @@
         <v>0</v>
       </c>
       <c r="Q170">
-        <v>55</v>
+        <v>52</v>
       </c>
     </row>
     <row r="171" spans="1:18">
@@ -10163,7 +10163,7 @@
         <v>1</v>
       </c>
       <c r="Q171">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="R171">
         <v>12</v>
@@ -10213,7 +10213,7 @@
         <v>0</v>
       </c>
       <c r="Q172">
-        <v>56</v>
+        <v>53</v>
       </c>
     </row>
     <row r="173" spans="1:18">
@@ -10260,7 +10260,7 @@
         <v>0</v>
       </c>
       <c r="Q173">
-        <v>56</v>
+        <v>53</v>
       </c>
     </row>
     <row r="174" spans="1:18">
@@ -10310,7 +10310,7 @@
         <v>0</v>
       </c>
       <c r="Q174">
-        <v>56</v>
+        <v>53</v>
       </c>
     </row>
     <row r="175" spans="1:18">
@@ -10357,7 +10357,7 @@
         <v>0</v>
       </c>
       <c r="Q175">
-        <v>56</v>
+        <v>53</v>
       </c>
     </row>
     <row r="176" spans="1:18">
@@ -10404,7 +10404,7 @@
         <v>0</v>
       </c>
       <c r="Q176">
-        <v>56</v>
+        <v>53</v>
       </c>
     </row>
     <row r="177" spans="1:18">
@@ -10451,7 +10451,7 @@
         <v>0</v>
       </c>
       <c r="Q177">
-        <v>56</v>
+        <v>53</v>
       </c>
     </row>
     <row r="178" spans="1:18">
@@ -10498,7 +10498,7 @@
         <v>0</v>
       </c>
       <c r="Q178">
-        <v>56</v>
+        <v>53</v>
       </c>
     </row>
     <row r="179" spans="1:18">
@@ -10545,7 +10545,7 @@
         <v>0</v>
       </c>
       <c r="Q179">
-        <v>56</v>
+        <v>53</v>
       </c>
     </row>
     <row r="180" spans="1:18">
@@ -10595,7 +10595,7 @@
         <v>1</v>
       </c>
       <c r="Q180">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="R180">
         <v>8</v>
@@ -10648,7 +10648,7 @@
         <v>0</v>
       </c>
       <c r="Q181">
-        <v>57</v>
+        <v>54</v>
       </c>
     </row>
     <row r="182" spans="1:18">
@@ -10698,7 +10698,7 @@
         <v>1</v>
       </c>
       <c r="Q182">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="R182">
         <v>16</v>
@@ -10751,7 +10751,7 @@
         <v>0</v>
       </c>
       <c r="Q183">
-        <v>58</v>
+        <v>55</v>
       </c>
     </row>
     <row r="184" spans="1:18">
@@ -10801,7 +10801,7 @@
         <v>1</v>
       </c>
       <c r="Q184">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="R184">
         <v>6</v>
@@ -10851,7 +10851,7 @@
         <v>0</v>
       </c>
       <c r="Q185">
-        <v>59</v>
+        <v>56</v>
       </c>
     </row>
     <row r="186" spans="1:18">
@@ -10901,7 +10901,7 @@
         <v>1</v>
       </c>
       <c r="Q186">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="R186">
         <v>14</v>
@@ -10948,7 +10948,7 @@
         <v>0</v>
       </c>
       <c r="Q187">
-        <v>60</v>
+        <v>57</v>
       </c>
     </row>
     <row r="188" spans="1:18">
@@ -10995,7 +10995,7 @@
         <v>0</v>
       </c>
       <c r="Q188">
-        <v>60</v>
+        <v>57</v>
       </c>
     </row>
     <row r="189" spans="1:18">
@@ -11042,7 +11042,7 @@
         <v>0</v>
       </c>
       <c r="Q189">
-        <v>60</v>
+        <v>57</v>
       </c>
     </row>
     <row r="190" spans="1:18">
@@ -11092,7 +11092,7 @@
         <v>1</v>
       </c>
       <c r="Q190">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="R190">
         <v>20</v>
@@ -11145,7 +11145,7 @@
         <v>1</v>
       </c>
       <c r="Q191">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="R191">
         <v>19</v>
@@ -11198,7 +11198,7 @@
         <v>0</v>
       </c>
       <c r="Q192">
-        <v>62</v>
+        <v>59</v>
       </c>
     </row>
     <row r="193" spans="1:18">
@@ -11248,7 +11248,7 @@
         <v>1</v>
       </c>
       <c r="Q193">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="R193">
         <v>10</v>
@@ -11298,7 +11298,7 @@
         <v>0</v>
       </c>
       <c r="Q194">
-        <v>63</v>
+        <v>60</v>
       </c>
     </row>
     <row r="195" spans="1:18">
@@ -11345,7 +11345,7 @@
         <v>0</v>
       </c>
       <c r="Q195">
-        <v>63</v>
+        <v>60</v>
       </c>
     </row>
     <row r="196" spans="1:18">
@@ -11392,7 +11392,7 @@
         <v>0</v>
       </c>
       <c r="Q196">
-        <v>63</v>
+        <v>60</v>
       </c>
     </row>
     <row r="197" spans="1:18">
@@ -11439,7 +11439,7 @@
         <v>0</v>
       </c>
       <c r="Q197">
-        <v>63</v>
+        <v>60</v>
       </c>
     </row>
     <row r="198" spans="1:18">
@@ -11486,7 +11486,7 @@
         <v>0</v>
       </c>
       <c r="Q198">
-        <v>63</v>
+        <v>60</v>
       </c>
     </row>
     <row r="199" spans="1:18">
@@ -11533,7 +11533,7 @@
         <v>0</v>
       </c>
       <c r="Q199">
-        <v>63</v>
+        <v>60</v>
       </c>
     </row>
     <row r="200" spans="1:18">
@@ -11580,7 +11580,7 @@
         <v>0</v>
       </c>
       <c r="Q200">
-        <v>63</v>
+        <v>60</v>
       </c>
     </row>
     <row r="201" spans="1:18">
@@ -11630,7 +11630,7 @@
         <v>1</v>
       </c>
       <c r="Q201">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="R201">
         <v>14</v>
@@ -11680,7 +11680,7 @@
         <v>0</v>
       </c>
       <c r="Q202">
-        <v>64</v>
+        <v>61</v>
       </c>
     </row>
     <row r="203" spans="1:18">
@@ -11730,7 +11730,7 @@
         <v>1</v>
       </c>
       <c r="Q203">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="R203">
         <v>18</v>
@@ -11780,7 +11780,7 @@
         <v>0</v>
       </c>
       <c r="Q204">
-        <v>65</v>
+        <v>62</v>
       </c>
     </row>
     <row r="205" spans="1:18">
@@ -11830,7 +11830,7 @@
         <v>1</v>
       </c>
       <c r="Q205">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="R205">
         <v>21</v>
@@ -11880,7 +11880,7 @@
         <v>0</v>
       </c>
       <c r="Q206">
-        <v>66</v>
+        <v>63</v>
       </c>
     </row>
     <row r="207" spans="1:18">
@@ -11927,7 +11927,7 @@
         <v>0</v>
       </c>
       <c r="Q207">
-        <v>66</v>
+        <v>63</v>
       </c>
     </row>
     <row r="208" spans="1:18">
@@ -11974,7 +11974,7 @@
         <v>0</v>
       </c>
       <c r="Q208">
-        <v>66</v>
+        <v>63</v>
       </c>
     </row>
     <row r="209" spans="1:18">
@@ -12024,7 +12024,7 @@
         <v>1</v>
       </c>
       <c r="Q209">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="R209">
         <v>20</v>
@@ -12077,7 +12077,7 @@
         <v>0</v>
       </c>
       <c r="Q210">
-        <v>67</v>
+        <v>64</v>
       </c>
     </row>
     <row r="211" spans="1:18">
@@ -12124,7 +12124,7 @@
         <v>0</v>
       </c>
       <c r="Q211">
-        <v>67</v>
+        <v>64</v>
       </c>
     </row>
     <row r="212" spans="1:18">
@@ -12171,7 +12171,7 @@
         <v>0</v>
       </c>
       <c r="Q212">
-        <v>67</v>
+        <v>64</v>
       </c>
     </row>
     <row r="213" spans="1:18">
@@ -12218,7 +12218,7 @@
         <v>0</v>
       </c>
       <c r="Q213">
-        <v>67</v>
+        <v>64</v>
       </c>
     </row>
     <row r="214" spans="1:18">
@@ -12265,7 +12265,7 @@
         <v>0</v>
       </c>
       <c r="Q214">
-        <v>67</v>
+        <v>64</v>
       </c>
     </row>
     <row r="215" spans="1:18">
@@ -12315,7 +12315,7 @@
         <v>1</v>
       </c>
       <c r="Q215">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="R215">
         <v>17</v>
@@ -12368,7 +12368,7 @@
         <v>0</v>
       </c>
       <c r="Q216">
-        <v>68</v>
+        <v>65</v>
       </c>
     </row>
     <row r="217" spans="1:18">
@@ -12415,7 +12415,7 @@
         <v>0</v>
       </c>
       <c r="Q217">
-        <v>68</v>
+        <v>65</v>
       </c>
     </row>
     <row r="218" spans="1:18">
@@ -12462,7 +12462,7 @@
         <v>0</v>
       </c>
       <c r="Q218">
-        <v>68</v>
+        <v>65</v>
       </c>
     </row>
     <row r="219" spans="1:18">
@@ -12512,7 +12512,7 @@
         <v>1</v>
       </c>
       <c r="Q219">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="R219">
         <v>21</v>
@@ -12559,7 +12559,7 @@
         <v>0</v>
       </c>
       <c r="Q220">
-        <v>69</v>
+        <v>66</v>
       </c>
     </row>
     <row r="221" spans="1:18">
@@ -12606,7 +12606,7 @@
         <v>0</v>
       </c>
       <c r="Q221">
-        <v>69</v>
+        <v>66</v>
       </c>
     </row>
     <row r="222" spans="1:18">
@@ -12653,7 +12653,7 @@
         <v>0</v>
       </c>
       <c r="Q222">
-        <v>69</v>
+        <v>66</v>
       </c>
     </row>
     <row r="223" spans="1:18">
@@ -12703,7 +12703,7 @@
         <v>1</v>
       </c>
       <c r="Q223">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="R223">
         <v>19</v>
@@ -12753,7 +12753,7 @@
         <v>0</v>
       </c>
       <c r="Q224">
-        <v>70</v>
+        <v>67</v>
       </c>
     </row>
     <row r="225" spans="1:18">
@@ -12800,7 +12800,7 @@
         <v>0</v>
       </c>
       <c r="Q225">
-        <v>70</v>
+        <v>67</v>
       </c>
     </row>
     <row r="226" spans="1:18">
@@ -12847,7 +12847,7 @@
         <v>0</v>
       </c>
       <c r="Q226">
-        <v>70</v>
+        <v>67</v>
       </c>
     </row>
     <row r="227" spans="1:18">
@@ -12897,7 +12897,7 @@
         <v>1</v>
       </c>
       <c r="Q227">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="R227">
         <v>11</v>
@@ -12947,7 +12947,7 @@
         <v>0</v>
       </c>
       <c r="Q228">
-        <v>71</v>
+        <v>68</v>
       </c>
     </row>
     <row r="229" spans="1:18">
@@ -12994,7 +12994,7 @@
         <v>0</v>
       </c>
       <c r="Q229">
-        <v>71</v>
+        <v>68</v>
       </c>
     </row>
     <row r="230" spans="1:18">
@@ -13044,7 +13044,7 @@
         <v>1</v>
       </c>
       <c r="Q230">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="R230">
         <v>25</v>
@@ -13097,7 +13097,7 @@
         <v>0</v>
       </c>
       <c r="Q231">
-        <v>72</v>
+        <v>69</v>
       </c>
     </row>
     <row r="232" spans="1:18">
@@ -13147,7 +13147,7 @@
         <v>1</v>
       </c>
       <c r="Q232">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="R232">
         <v>7</v>
@@ -13197,7 +13197,7 @@
         <v>0</v>
       </c>
       <c r="Q233">
-        <v>73</v>
+        <v>70</v>
       </c>
     </row>
     <row r="234" spans="1:18">
@@ -13247,7 +13247,7 @@
         <v>1</v>
       </c>
       <c r="Q234">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="R234">
         <v>17</v>
@@ -13297,7 +13297,7 @@
         <v>0</v>
       </c>
       <c r="Q235">
-        <v>74</v>
+        <v>71</v>
       </c>
     </row>
     <row r="236" spans="1:18">
@@ -13347,7 +13347,7 @@
         <v>0</v>
       </c>
       <c r="Q236">
-        <v>74</v>
+        <v>71</v>
       </c>
     </row>
     <row r="237" spans="1:18">
@@ -13397,7 +13397,7 @@
         <v>1</v>
       </c>
       <c r="Q237">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="R237">
         <v>4</v>
@@ -13444,7 +13444,7 @@
         <v>0</v>
       </c>
       <c r="Q238">
-        <v>75</v>
+        <v>72</v>
       </c>
     </row>
     <row r="239" spans="1:18">
@@ -13491,7 +13491,7 @@
         <v>0</v>
       </c>
       <c r="Q239">
-        <v>75</v>
+        <v>72</v>
       </c>
     </row>
     <row r="240" spans="1:18">
@@ -13538,7 +13538,7 @@
         <v>0</v>
       </c>
       <c r="Q240">
-        <v>75</v>
+        <v>72</v>
       </c>
     </row>
     <row r="241" spans="1:18">
@@ -13588,7 +13588,7 @@
         <v>1</v>
       </c>
       <c r="Q241">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="R241">
         <v>25</v>
@@ -13641,7 +13641,7 @@
         <v>1</v>
       </c>
       <c r="Q242">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="R242">
         <v>25</v>
@@ -13694,7 +13694,7 @@
         <v>0</v>
       </c>
       <c r="Q243">
-        <v>77</v>
+        <v>74</v>
       </c>
     </row>
     <row r="244" spans="1:18">
@@ -13741,7 +13741,7 @@
         <v>0</v>
       </c>
       <c r="Q244">
-        <v>77</v>
+        <v>74</v>
       </c>
     </row>
     <row r="245" spans="1:18">
@@ -13788,7 +13788,7 @@
         <v>0</v>
       </c>
       <c r="Q245">
-        <v>77</v>
+        <v>74</v>
       </c>
     </row>
     <row r="246" spans="1:18">
@@ -13835,7 +13835,7 @@
         <v>0</v>
       </c>
       <c r="Q246">
-        <v>77</v>
+        <v>74</v>
       </c>
     </row>
     <row r="247" spans="1:18">
@@ -13885,7 +13885,7 @@
         <v>1</v>
       </c>
       <c r="Q247">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="R247">
         <v>14</v>
@@ -13935,7 +13935,7 @@
         <v>0</v>
       </c>
       <c r="Q248">
-        <v>78</v>
+        <v>75</v>
       </c>
     </row>
     <row r="249" spans="1:18">
@@ -13982,7 +13982,7 @@
         <v>0</v>
       </c>
       <c r="Q249">
-        <v>78</v>
+        <v>75</v>
       </c>
     </row>
     <row r="250" spans="1:18">
@@ -14026,7 +14026,7 @@
         <v>0</v>
       </c>
       <c r="Q250">
-        <v>78</v>
+        <v>75</v>
       </c>
     </row>
     <row r="251" spans="1:18">
@@ -14073,7 +14073,7 @@
         <v>0</v>
       </c>
       <c r="Q251">
-        <v>78</v>
+        <v>75</v>
       </c>
     </row>
     <row r="252" spans="1:18">
@@ -14120,7 +14120,7 @@
         <v>0</v>
       </c>
       <c r="Q252">
-        <v>78</v>
+        <v>75</v>
       </c>
     </row>
     <row r="253" spans="1:18">
@@ -14167,7 +14167,7 @@
         <v>0</v>
       </c>
       <c r="Q253">
-        <v>78</v>
+        <v>75</v>
       </c>
     </row>
     <row r="254" spans="1:18">
@@ -14214,7 +14214,7 @@
         <v>0</v>
       </c>
       <c r="Q254">
-        <v>78</v>
+        <v>75</v>
       </c>
     </row>
     <row r="255" spans="1:18">
@@ -14261,7 +14261,7 @@
         <v>0</v>
       </c>
       <c r="Q255">
-        <v>78</v>
+        <v>75</v>
       </c>
     </row>
     <row r="256" spans="1:18">
@@ -14311,7 +14311,7 @@
         <v>0</v>
       </c>
       <c r="Q256">
-        <v>78</v>
+        <v>75</v>
       </c>
     </row>
     <row r="257" spans="1:18">
@@ -14361,7 +14361,7 @@
         <v>1</v>
       </c>
       <c r="Q257">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="R257">
         <v>17</v>
@@ -14411,7 +14411,7 @@
         <v>0</v>
       </c>
       <c r="Q258">
-        <v>79</v>
+        <v>76</v>
       </c>
     </row>
     <row r="259" spans="1:18">
@@ -14461,7 +14461,7 @@
         <v>0</v>
       </c>
       <c r="Q259">
-        <v>79</v>
+        <v>76</v>
       </c>
     </row>
     <row r="260" spans="1:18">
@@ -14511,7 +14511,7 @@
         <v>1</v>
       </c>
       <c r="Q260">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="R260">
         <v>25</v>
@@ -14561,7 +14561,7 @@
         <v>0</v>
       </c>
       <c r="Q261">
-        <v>80</v>
+        <v>77</v>
       </c>
     </row>
     <row r="262" spans="1:18">
@@ -14608,7 +14608,7 @@
         <v>0</v>
       </c>
       <c r="Q262">
-        <v>80</v>
+        <v>77</v>
       </c>
     </row>
     <row r="263" spans="1:18">
@@ -14658,7 +14658,7 @@
         <v>1</v>
       </c>
       <c r="Q263">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="R263">
         <v>3</v>
@@ -14702,10 +14702,10 @@
         <v>1</v>
       </c>
       <c r="P264" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q264">
-        <v>82</v>
+        <v>78</v>
       </c>
     </row>
     <row r="265" spans="1:18">
@@ -14752,7 +14752,7 @@
         <v>0</v>
       </c>
       <c r="Q265">
-        <v>82</v>
+        <v>78</v>
       </c>
     </row>
     <row r="266" spans="1:18">
@@ -14799,7 +14799,7 @@
         <v>0</v>
       </c>
       <c r="Q266">
-        <v>82</v>
+        <v>78</v>
       </c>
     </row>
     <row r="267" spans="1:18">
@@ -14846,7 +14846,7 @@
         <v>0</v>
       </c>
       <c r="Q267">
-        <v>82</v>
+        <v>78</v>
       </c>
     </row>
     <row r="268" spans="1:18">
@@ -14893,7 +14893,7 @@
         <v>0</v>
       </c>
       <c r="Q268">
-        <v>82</v>
+        <v>78</v>
       </c>
     </row>
     <row r="269" spans="1:18">
@@ -14940,7 +14940,7 @@
         <v>0</v>
       </c>
       <c r="Q269">
-        <v>82</v>
+        <v>78</v>
       </c>
     </row>
     <row r="270" spans="1:18">
@@ -14987,7 +14987,7 @@
         <v>0</v>
       </c>
       <c r="Q270">
-        <v>82</v>
+        <v>78</v>
       </c>
     </row>
     <row r="271" spans="1:18">
@@ -15034,7 +15034,7 @@
         <v>0</v>
       </c>
       <c r="Q271">
-        <v>82</v>
+        <v>78</v>
       </c>
     </row>
     <row r="272" spans="1:18">
@@ -15081,7 +15081,7 @@
         <v>0</v>
       </c>
       <c r="Q272">
-        <v>82</v>
+        <v>78</v>
       </c>
     </row>
     <row r="273" spans="1:18">
@@ -15122,10 +15122,10 @@
         <v>1</v>
       </c>
       <c r="P273" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q273">
-        <v>83</v>
+        <v>78</v>
       </c>
     </row>
     <row r="274" spans="1:18">
@@ -15175,7 +15175,7 @@
         <v>1</v>
       </c>
       <c r="Q274">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="R274">
         <v>14</v>
@@ -15228,7 +15228,7 @@
         <v>1</v>
       </c>
       <c r="Q275">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="R275">
         <v>26</v>
@@ -15281,7 +15281,7 @@
         <v>0</v>
       </c>
       <c r="Q276">
-        <v>85</v>
+        <v>80</v>
       </c>
     </row>
     <row r="277" spans="1:18">
@@ -15331,7 +15331,7 @@
         <v>1</v>
       </c>
       <c r="Q277">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="R277">
         <v>21</v>
@@ -15384,7 +15384,7 @@
         <v>0</v>
       </c>
       <c r="Q278">
-        <v>86</v>
+        <v>81</v>
       </c>
     </row>
     <row r="279" spans="1:18">
@@ -15434,7 +15434,7 @@
         <v>1</v>
       </c>
       <c r="Q279">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="R279">
         <v>12</v>
@@ -15487,7 +15487,7 @@
         <v>0</v>
       </c>
       <c r="Q280">
-        <v>87</v>
+        <v>82</v>
       </c>
     </row>
     <row r="281" spans="1:18">
@@ -15534,7 +15534,7 @@
         <v>0</v>
       </c>
       <c r="Q281">
-        <v>87</v>
+        <v>82</v>
       </c>
     </row>
     <row r="282" spans="1:18">
@@ -15584,7 +15584,7 @@
         <v>0</v>
       </c>
       <c r="Q282">
-        <v>87</v>
+        <v>82</v>
       </c>
     </row>
     <row r="283" spans="1:18">
@@ -15634,7 +15634,7 @@
         <v>1</v>
       </c>
       <c r="Q283">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="R283">
         <v>17</v>
@@ -15687,7 +15687,7 @@
         <v>1</v>
       </c>
       <c r="Q284">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="R284">
         <v>16</v>
@@ -15740,7 +15740,7 @@
         <v>0</v>
       </c>
       <c r="Q285">
-        <v>89</v>
+        <v>84</v>
       </c>
     </row>
     <row r="286" spans="1:18">
@@ -15790,7 +15790,7 @@
         <v>1</v>
       </c>
       <c r="Q286">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="R286">
         <v>20</v>
@@ -15840,7 +15840,7 @@
         <v>0</v>
       </c>
       <c r="Q287">
-        <v>90</v>
+        <v>85</v>
       </c>
     </row>
     <row r="288" spans="1:18">
@@ -15887,7 +15887,7 @@
         <v>0</v>
       </c>
       <c r="Q288">
-        <v>90</v>
+        <v>85</v>
       </c>
     </row>
     <row r="289" spans="1:18">
@@ -15934,7 +15934,7 @@
         <v>0</v>
       </c>
       <c r="Q289">
-        <v>90</v>
+        <v>85</v>
       </c>
     </row>
     <row r="290" spans="1:18">
@@ -15984,7 +15984,7 @@
         <v>1</v>
       </c>
       <c r="Q290">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="R290">
         <v>19</v>
@@ -16037,7 +16037,7 @@
         <v>0</v>
       </c>
       <c r="Q291">
-        <v>91</v>
+        <v>86</v>
       </c>
     </row>
     <row r="292" spans="1:18">
@@ -16087,7 +16087,7 @@
         <v>1</v>
       </c>
       <c r="Q292">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="R292">
         <v>14</v>
@@ -16140,7 +16140,7 @@
         <v>1</v>
       </c>
       <c r="Q293">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="R293">
         <v>17</v>
@@ -16190,7 +16190,7 @@
         <v>0</v>
       </c>
       <c r="Q294">
-        <v>93</v>
+        <v>88</v>
       </c>
     </row>
     <row r="295" spans="1:18">
@@ -16237,7 +16237,7 @@
         <v>0</v>
       </c>
       <c r="Q295">
-        <v>93</v>
+        <v>88</v>
       </c>
     </row>
     <row r="296" spans="1:18">
@@ -16284,7 +16284,7 @@
         <v>0</v>
       </c>
       <c r="Q296">
-        <v>93</v>
+        <v>88</v>
       </c>
     </row>
     <row r="297" spans="1:18">
@@ -16331,7 +16331,7 @@
         <v>0</v>
       </c>
       <c r="Q297">
-        <v>93</v>
+        <v>88</v>
       </c>
     </row>
     <row r="298" spans="1:18">
@@ -16378,7 +16378,7 @@
         <v>0</v>
       </c>
       <c r="Q298">
-        <v>93</v>
+        <v>88</v>
       </c>
     </row>
     <row r="299" spans="1:18">
@@ -16425,7 +16425,7 @@
         <v>0</v>
       </c>
       <c r="Q299">
-        <v>93</v>
+        <v>88</v>
       </c>
     </row>
     <row r="300" spans="1:18">
@@ -16472,7 +16472,7 @@
         <v>0</v>
       </c>
       <c r="Q300">
-        <v>93</v>
+        <v>88</v>
       </c>
     </row>
     <row r="301" spans="1:18">
@@ -16522,7 +16522,7 @@
         <v>1</v>
       </c>
       <c r="Q301">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="R301">
         <v>14</v>
@@ -16575,7 +16575,7 @@
         <v>1</v>
       </c>
       <c r="Q302">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="R302">
         <v>7</v>
@@ -16625,7 +16625,7 @@
         <v>0</v>
       </c>
       <c r="Q303">
-        <v>95</v>
+        <v>90</v>
       </c>
     </row>
     <row r="304" spans="1:18">
@@ -16672,7 +16672,7 @@
         <v>0</v>
       </c>
       <c r="Q304">
-        <v>95</v>
+        <v>90</v>
       </c>
     </row>
     <row r="305" spans="1:18">
@@ -16719,7 +16719,7 @@
         <v>0</v>
       </c>
       <c r="Q305">
-        <v>95</v>
+        <v>90</v>
       </c>
     </row>
     <row r="306" spans="1:18">
@@ -16766,7 +16766,7 @@
         <v>0</v>
       </c>
       <c r="Q306">
-        <v>95</v>
+        <v>90</v>
       </c>
     </row>
     <row r="307" spans="1:18">
@@ -16816,7 +16816,7 @@
         <v>1</v>
       </c>
       <c r="Q307">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="R307">
         <v>16</v>
@@ -16866,7 +16866,7 @@
         <v>0</v>
       </c>
       <c r="Q308">
-        <v>96</v>
+        <v>91</v>
       </c>
     </row>
     <row r="309" spans="1:18">
@@ -16916,7 +16916,7 @@
         <v>1</v>
       </c>
       <c r="Q309">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="R309">
         <v>15</v>
@@ -16966,7 +16966,7 @@
         <v>0</v>
       </c>
       <c r="Q310">
-        <v>97</v>
+        <v>92</v>
       </c>
     </row>
     <row r="311" spans="1:18">
@@ -17016,7 +17016,7 @@
         <v>1</v>
       </c>
       <c r="Q311">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="R311">
         <v>33</v>
@@ -17066,7 +17066,7 @@
         <v>0</v>
       </c>
       <c r="Q312">
-        <v>98</v>
+        <v>93</v>
       </c>
     </row>
     <row r="313" spans="1:18">
@@ -17116,7 +17116,7 @@
         <v>1</v>
       </c>
       <c r="Q313">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="R313">
         <v>15</v>
@@ -17169,7 +17169,7 @@
         <v>1</v>
       </c>
       <c r="Q314">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="R314">
         <v>1</v>
@@ -17222,7 +17222,7 @@
         <v>1</v>
       </c>
       <c r="Q315">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="R315">
         <v>6</v>
@@ -17272,7 +17272,7 @@
         <v>0</v>
       </c>
       <c r="Q316">
-        <v>101</v>
+        <v>96</v>
       </c>
     </row>
     <row r="317" spans="1:18">
@@ -17319,7 +17319,7 @@
         <v>0</v>
       </c>
       <c r="Q317">
-        <v>101</v>
+        <v>96</v>
       </c>
     </row>
     <row r="318" spans="1:18">
@@ -17366,7 +17366,7 @@
         <v>0</v>
       </c>
       <c r="Q318">
-        <v>101</v>
+        <v>96</v>
       </c>
     </row>
     <row r="319" spans="1:18">
@@ -17413,7 +17413,7 @@
         <v>0</v>
       </c>
       <c r="Q319">
-        <v>101</v>
+        <v>96</v>
       </c>
     </row>
     <row r="320" spans="1:18">
@@ -17460,7 +17460,7 @@
         <v>0</v>
       </c>
       <c r="Q320">
-        <v>101</v>
+        <v>96</v>
       </c>
     </row>
     <row r="321" spans="1:18">
@@ -17510,7 +17510,7 @@
         <v>1</v>
       </c>
       <c r="Q321">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="R321">
         <v>36</v>
@@ -17560,7 +17560,7 @@
         <v>0</v>
       </c>
       <c r="Q322">
-        <v>102</v>
+        <v>97</v>
       </c>
     </row>
     <row r="323" spans="1:18">
@@ -17610,7 +17610,7 @@
         <v>0</v>
       </c>
       <c r="Q323">
-        <v>102</v>
+        <v>97</v>
       </c>
     </row>
     <row r="324" spans="1:18">
@@ -17657,7 +17657,7 @@
         <v>0</v>
       </c>
       <c r="Q324">
-        <v>102</v>
+        <v>97</v>
       </c>
     </row>
     <row r="325" spans="1:18">
@@ -17704,7 +17704,7 @@
         <v>0</v>
       </c>
       <c r="Q325">
-        <v>102</v>
+        <v>97</v>
       </c>
     </row>
     <row r="326" spans="1:18">
@@ -17751,7 +17751,7 @@
         <v>0</v>
       </c>
       <c r="Q326">
-        <v>102</v>
+        <v>97</v>
       </c>
     </row>
     <row r="327" spans="1:18">
@@ -17801,7 +17801,7 @@
         <v>0</v>
       </c>
       <c r="Q327">
-        <v>102</v>
+        <v>97</v>
       </c>
     </row>
     <row r="328" spans="1:18">
@@ -17848,7 +17848,7 @@
         <v>0</v>
       </c>
       <c r="Q328">
-        <v>102</v>
+        <v>97</v>
       </c>
     </row>
     <row r="329" spans="1:18">
@@ -17895,7 +17895,7 @@
         <v>0</v>
       </c>
       <c r="Q329">
-        <v>102</v>
+        <v>97</v>
       </c>
     </row>
     <row r="330" spans="1:18">
@@ -17942,7 +17942,7 @@
         <v>0</v>
       </c>
       <c r="Q330">
-        <v>102</v>
+        <v>97</v>
       </c>
     </row>
     <row r="331" spans="1:18">
@@ -17992,7 +17992,7 @@
         <v>1</v>
       </c>
       <c r="Q331">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="R331">
         <v>28</v>
@@ -18045,7 +18045,7 @@
         <v>1</v>
       </c>
       <c r="Q332">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="R332">
         <v>21</v>
@@ -18095,7 +18095,7 @@
         <v>0</v>
       </c>
       <c r="Q333">
-        <v>104</v>
+        <v>99</v>
       </c>
     </row>
     <row r="334" spans="1:18">
@@ -18142,7 +18142,7 @@
         <v>0</v>
       </c>
       <c r="Q334">
-        <v>104</v>
+        <v>99</v>
       </c>
     </row>
     <row r="335" spans="1:18">
@@ -18189,7 +18189,7 @@
         <v>0</v>
       </c>
       <c r="Q335">
-        <v>104</v>
+        <v>99</v>
       </c>
     </row>
     <row r="336" spans="1:18">
@@ -18236,7 +18236,7 @@
         <v>0</v>
       </c>
       <c r="Q336">
-        <v>104</v>
+        <v>99</v>
       </c>
     </row>
     <row r="337" spans="1:18">
@@ -18283,7 +18283,7 @@
         <v>0</v>
       </c>
       <c r="Q337">
-        <v>104</v>
+        <v>99</v>
       </c>
     </row>
     <row r="338" spans="1:18">
@@ -18330,7 +18330,7 @@
         <v>0</v>
       </c>
       <c r="Q338">
-        <v>104</v>
+        <v>99</v>
       </c>
     </row>
     <row r="339" spans="1:18">
@@ -18377,7 +18377,7 @@
         <v>0</v>
       </c>
       <c r="Q339">
-        <v>104</v>
+        <v>99</v>
       </c>
     </row>
     <row r="340" spans="1:18">
@@ -18424,7 +18424,7 @@
         <v>0</v>
       </c>
       <c r="Q340">
-        <v>104</v>
+        <v>99</v>
       </c>
     </row>
     <row r="341" spans="1:18">
@@ -18471,7 +18471,7 @@
         <v>0</v>
       </c>
       <c r="Q341">
-        <v>104</v>
+        <v>99</v>
       </c>
     </row>
     <row r="342" spans="1:18">
@@ -18518,7 +18518,7 @@
         <v>0</v>
       </c>
       <c r="Q342">
-        <v>104</v>
+        <v>99</v>
       </c>
     </row>
     <row r="343" spans="1:18">
@@ -18568,7 +18568,7 @@
         <v>1</v>
       </c>
       <c r="Q343">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="R343">
         <v>12</v>
@@ -18618,7 +18618,7 @@
         <v>0</v>
       </c>
       <c r="Q344">
-        <v>105</v>
+        <v>100</v>
       </c>
     </row>
     <row r="345" spans="1:18">
@@ -18668,7 +18668,7 @@
         <v>0</v>
       </c>
       <c r="Q345">
-        <v>105</v>
+        <v>100</v>
       </c>
     </row>
     <row r="346" spans="1:18">
@@ -18718,7 +18718,7 @@
         <v>1</v>
       </c>
       <c r="Q346">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="R346">
         <v>22</v>
@@ -18771,7 +18771,7 @@
         <v>1</v>
       </c>
       <c r="Q347">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="R347">
         <v>16</v>
@@ -18824,7 +18824,7 @@
         <v>1</v>
       </c>
       <c r="Q348">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="R348">
         <v>13</v>
@@ -18874,7 +18874,7 @@
         <v>0</v>
       </c>
       <c r="Q349">
-        <v>108</v>
+        <v>103</v>
       </c>
     </row>
     <row r="350" spans="1:18">
@@ -18921,7 +18921,7 @@
         <v>0</v>
       </c>
       <c r="Q350">
-        <v>108</v>
+        <v>103</v>
       </c>
     </row>
     <row r="351" spans="1:18">
@@ -18968,7 +18968,7 @@
         <v>0</v>
       </c>
       <c r="Q351">
-        <v>108</v>
+        <v>103</v>
       </c>
     </row>
     <row r="352" spans="1:18">
@@ -19015,7 +19015,7 @@
         <v>0</v>
       </c>
       <c r="Q352">
-        <v>108</v>
+        <v>103</v>
       </c>
     </row>
     <row r="353" spans="1:18">
@@ -19065,7 +19065,7 @@
         <v>1</v>
       </c>
       <c r="Q353">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="R353">
         <v>7</v>
@@ -19115,7 +19115,7 @@
         <v>0</v>
       </c>
       <c r="Q354">
-        <v>109</v>
+        <v>104</v>
       </c>
     </row>
     <row r="355" spans="1:18">
@@ -19162,7 +19162,7 @@
         <v>0</v>
       </c>
       <c r="Q355">
-        <v>109</v>
+        <v>104</v>
       </c>
     </row>
     <row r="356" spans="1:18">
@@ -19209,7 +19209,7 @@
         <v>0</v>
       </c>
       <c r="Q356">
-        <v>109</v>
+        <v>104</v>
       </c>
     </row>
     <row r="357" spans="1:18">
@@ -19256,7 +19256,7 @@
         <v>0</v>
       </c>
       <c r="Q357">
-        <v>109</v>
+        <v>104</v>
       </c>
     </row>
     <row r="358" spans="1:18">
@@ -19303,7 +19303,7 @@
         <v>0</v>
       </c>
       <c r="Q358">
-        <v>109</v>
+        <v>104</v>
       </c>
     </row>
     <row r="359" spans="1:18">
@@ -19353,7 +19353,7 @@
         <v>1</v>
       </c>
       <c r="Q359">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="R359">
         <v>26</v>
@@ -19406,7 +19406,7 @@
         <v>1</v>
       </c>
       <c r="Q360">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="R360">
         <v>3</v>
@@ -19459,7 +19459,7 @@
         <v>1</v>
       </c>
       <c r="Q361">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="R361">
         <v>12</v>
@@ -19509,7 +19509,7 @@
         <v>0</v>
       </c>
       <c r="Q362">
-        <v>112</v>
+        <v>107</v>
       </c>
     </row>
     <row r="363" spans="1:18">
@@ -19559,7 +19559,7 @@
         <v>1</v>
       </c>
       <c r="Q363">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="R363">
         <v>4</v>
@@ -19609,7 +19609,7 @@
         <v>0</v>
       </c>
       <c r="Q364">
-        <v>113</v>
+        <v>108</v>
       </c>
     </row>
     <row r="365" spans="1:18">
@@ -19659,7 +19659,7 @@
         <v>1</v>
       </c>
       <c r="Q365">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="R365">
         <v>13</v>
@@ -19709,7 +19709,7 @@
         <v>0</v>
       </c>
       <c r="Q366">
-        <v>114</v>
+        <v>109</v>
       </c>
     </row>
     <row r="367" spans="1:18">
@@ -19756,7 +19756,7 @@
         <v>0</v>
       </c>
       <c r="Q367">
-        <v>114</v>
+        <v>109</v>
       </c>
     </row>
     <row r="368" spans="1:18">
@@ -19806,7 +19806,7 @@
         <v>0</v>
       </c>
       <c r="Q368">
-        <v>114</v>
+        <v>109</v>
       </c>
     </row>
     <row r="369" spans="1:18">
@@ -19856,7 +19856,7 @@
         <v>1</v>
       </c>
       <c r="Q369">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="R369">
         <v>25</v>
@@ -19909,7 +19909,7 @@
         <v>1</v>
       </c>
       <c r="Q370">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="R370">
         <v>14</v>
@@ -19962,7 +19962,7 @@
         <v>0</v>
       </c>
       <c r="Q371">
-        <v>116</v>
+        <v>111</v>
       </c>
     </row>
     <row r="372" spans="1:18">
@@ -20009,7 +20009,7 @@
         <v>0</v>
       </c>
       <c r="Q372">
-        <v>116</v>
+        <v>111</v>
       </c>
     </row>
     <row r="373" spans="1:18">
@@ -20056,7 +20056,7 @@
         <v>0</v>
       </c>
       <c r="Q373">
-        <v>116</v>
+        <v>111</v>
       </c>
     </row>
     <row r="374" spans="1:18">
@@ -20103,7 +20103,7 @@
         <v>0</v>
       </c>
       <c r="Q374">
-        <v>116</v>
+        <v>111</v>
       </c>
     </row>
     <row r="375" spans="1:18">
@@ -20150,7 +20150,7 @@
         <v>0</v>
       </c>
       <c r="Q375">
-        <v>116</v>
+        <v>111</v>
       </c>
     </row>
     <row r="376" spans="1:18">
@@ -20200,7 +20200,7 @@
         <v>1</v>
       </c>
       <c r="Q376">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="R376">
         <v>15</v>
@@ -20253,7 +20253,7 @@
         <v>0</v>
       </c>
       <c r="Q377">
-        <v>117</v>
+        <v>112</v>
       </c>
     </row>
     <row r="378" spans="1:18">
@@ -20303,7 +20303,7 @@
         <v>1</v>
       </c>
       <c r="Q378">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="R378">
         <v>10</v>
@@ -20353,7 +20353,7 @@
         <v>0</v>
       </c>
       <c r="Q379">
-        <v>118</v>
+        <v>113</v>
       </c>
     </row>
     <row r="380" spans="1:18">
@@ -20400,7 +20400,7 @@
         <v>0</v>
       </c>
       <c r="Q380">
-        <v>118</v>
+        <v>113</v>
       </c>
     </row>
     <row r="381" spans="1:18">
@@ -20447,7 +20447,7 @@
         <v>0</v>
       </c>
       <c r="Q381">
-        <v>118</v>
+        <v>113</v>
       </c>
     </row>
     <row r="382" spans="1:18">
@@ -20494,7 +20494,7 @@
         <v>0</v>
       </c>
       <c r="Q382">
-        <v>118</v>
+        <v>113</v>
       </c>
     </row>
     <row r="383" spans="1:18">
@@ -20541,7 +20541,7 @@
         <v>0</v>
       </c>
       <c r="Q383">
-        <v>118</v>
+        <v>113</v>
       </c>
     </row>
     <row r="384" spans="1:18">
@@ -20588,7 +20588,7 @@
         <v>0</v>
       </c>
       <c r="Q384">
-        <v>118</v>
+        <v>113</v>
       </c>
     </row>
     <row r="385" spans="1:18">
@@ -20635,7 +20635,7 @@
         <v>0</v>
       </c>
       <c r="Q385">
-        <v>118</v>
+        <v>113</v>
       </c>
     </row>
     <row r="386" spans="1:18">
@@ -20682,7 +20682,7 @@
         <v>0</v>
       </c>
       <c r="Q386">
-        <v>118</v>
+        <v>113</v>
       </c>
     </row>
     <row r="387" spans="1:18">
@@ -20729,7 +20729,7 @@
         <v>0</v>
       </c>
       <c r="Q387">
-        <v>118</v>
+        <v>113</v>
       </c>
     </row>
     <row r="388" spans="1:18">
@@ -20776,7 +20776,7 @@
         <v>0</v>
       </c>
       <c r="Q388">
-        <v>118</v>
+        <v>113</v>
       </c>
     </row>
     <row r="389" spans="1:18">
@@ -20826,7 +20826,7 @@
         <v>0</v>
       </c>
       <c r="Q389">
-        <v>118</v>
+        <v>113</v>
       </c>
     </row>
     <row r="390" spans="1:18">
@@ -20876,7 +20876,7 @@
         <v>1</v>
       </c>
       <c r="Q390">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="R390">
         <v>17</v>
@@ -20926,7 +20926,7 @@
         <v>0</v>
       </c>
       <c r="Q391">
-        <v>119</v>
+        <v>114</v>
       </c>
     </row>
     <row r="392" spans="1:18">
@@ -20976,7 +20976,7 @@
         <v>1</v>
       </c>
       <c r="Q392">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="R392">
         <v>16</v>
@@ -21029,7 +21029,7 @@
         <v>0</v>
       </c>
       <c r="Q393">
-        <v>120</v>
+        <v>115</v>
       </c>
     </row>
     <row r="394" spans="1:18">
@@ -21079,7 +21079,7 @@
         <v>1</v>
       </c>
       <c r="Q394">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="R394">
         <v>5</v>
@@ -21123,10 +21123,10 @@
         <v>1</v>
       </c>
       <c r="P395" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q395">
-        <v>122</v>
+        <v>116</v>
       </c>
     </row>
     <row r="396" spans="1:18">
@@ -21173,7 +21173,7 @@
         <v>0</v>
       </c>
       <c r="Q396">
-        <v>122</v>
+        <v>116</v>
       </c>
     </row>
     <row r="397" spans="1:18">
@@ -21220,7 +21220,7 @@
         <v>0</v>
       </c>
       <c r="Q397">
-        <v>122</v>
+        <v>116</v>
       </c>
     </row>
     <row r="398" spans="1:18">
@@ -21261,10 +21261,10 @@
         <v>1</v>
       </c>
       <c r="P398" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q398">
-        <v>123</v>
+        <v>116</v>
       </c>
     </row>
     <row r="399" spans="1:18">
@@ -21314,7 +21314,7 @@
         <v>1</v>
       </c>
       <c r="Q399">
-        <v>124</v>
+        <v>117</v>
       </c>
       <c r="R399">
         <v>11</v>
@@ -21367,7 +21367,7 @@
         <v>0</v>
       </c>
       <c r="Q400">
-        <v>124</v>
+        <v>117</v>
       </c>
     </row>
     <row r="401" spans="1:18">
@@ -21417,7 +21417,7 @@
         <v>1</v>
       </c>
       <c r="Q401">
-        <v>125</v>
+        <v>118</v>
       </c>
       <c r="R401">
         <v>9</v>
@@ -21470,7 +21470,7 @@
         <v>0</v>
       </c>
       <c r="Q402">
-        <v>125</v>
+        <v>118</v>
       </c>
     </row>
     <row r="403" spans="1:18">
@@ -21517,7 +21517,7 @@
         <v>0</v>
       </c>
       <c r="Q403">
-        <v>125</v>
+        <v>118</v>
       </c>
     </row>
     <row r="404" spans="1:18">
@@ -21564,7 +21564,7 @@
         <v>0</v>
       </c>
       <c r="Q404">
-        <v>125</v>
+        <v>118</v>
       </c>
     </row>
     <row r="405" spans="1:18">
@@ -21611,7 +21611,7 @@
         <v>0</v>
       </c>
       <c r="Q405">
-        <v>125</v>
+        <v>118</v>
       </c>
     </row>
     <row r="406" spans="1:18">
@@ -21658,7 +21658,7 @@
         <v>0</v>
       </c>
       <c r="Q406">
-        <v>125</v>
+        <v>118</v>
       </c>
     </row>
     <row r="407" spans="1:18">
@@ -21705,7 +21705,7 @@
         <v>0</v>
       </c>
       <c r="Q407">
-        <v>125</v>
+        <v>118</v>
       </c>
     </row>
     <row r="408" spans="1:18">
@@ -21755,7 +21755,7 @@
         <v>1</v>
       </c>
       <c r="Q408">
-        <v>126</v>
+        <v>119</v>
       </c>
       <c r="R408">
         <v>28</v>
@@ -21808,7 +21808,7 @@
         <v>0</v>
       </c>
       <c r="Q409">
-        <v>126</v>
+        <v>119</v>
       </c>
     </row>
     <row r="410" spans="1:18">
@@ -21858,7 +21858,7 @@
         <v>1</v>
       </c>
       <c r="Q410">
-        <v>127</v>
+        <v>120</v>
       </c>
       <c r="R410">
         <v>20</v>
@@ -21911,7 +21911,7 @@
         <v>0</v>
       </c>
       <c r="Q411">
-        <v>127</v>
+        <v>120</v>
       </c>
     </row>
     <row r="412" spans="1:18">
@@ -21961,7 +21961,7 @@
         <v>1</v>
       </c>
       <c r="Q412">
-        <v>128</v>
+        <v>121</v>
       </c>
       <c r="R412">
         <v>21</v>
@@ -22014,7 +22014,7 @@
         <v>0</v>
       </c>
       <c r="Q413">
-        <v>128</v>
+        <v>121</v>
       </c>
     </row>
     <row r="414" spans="1:18">
@@ -22061,7 +22061,7 @@
         <v>0</v>
       </c>
       <c r="Q414">
-        <v>128</v>
+        <v>121</v>
       </c>
     </row>
     <row r="415" spans="1:18">
@@ -22111,7 +22111,7 @@
         <v>0</v>
       </c>
       <c r="Q415">
-        <v>128</v>
+        <v>121</v>
       </c>
     </row>
     <row r="416" spans="1:18">
@@ -22161,7 +22161,7 @@
         <v>1</v>
       </c>
       <c r="Q416">
-        <v>129</v>
+        <v>122</v>
       </c>
       <c r="R416">
         <v>20</v>
@@ -22211,7 +22211,7 @@
         <v>0</v>
       </c>
       <c r="Q417">
-        <v>129</v>
+        <v>122</v>
       </c>
     </row>
     <row r="418" spans="1:18">
@@ -22261,7 +22261,7 @@
         <v>0</v>
       </c>
       <c r="Q418">
-        <v>129</v>
+        <v>122</v>
       </c>
     </row>
     <row r="419" spans="1:18">
@@ -22311,7 +22311,7 @@
         <v>1</v>
       </c>
       <c r="Q419">
-        <v>130</v>
+        <v>123</v>
       </c>
       <c r="R419">
         <v>5</v>
@@ -22361,7 +22361,7 @@
         <v>0</v>
       </c>
       <c r="Q420">
-        <v>130</v>
+        <v>123</v>
       </c>
     </row>
     <row r="421" spans="1:18">
@@ -22405,7 +22405,7 @@
         <v>0</v>
       </c>
       <c r="Q421">
-        <v>130</v>
+        <v>123</v>
       </c>
     </row>
     <row r="422" spans="1:18">
@@ -22452,7 +22452,7 @@
         <v>0</v>
       </c>
       <c r="Q422">
-        <v>130</v>
+        <v>123</v>
       </c>
     </row>
     <row r="423" spans="1:18">
@@ -22499,7 +22499,7 @@
         <v>0</v>
       </c>
       <c r="Q423">
-        <v>130</v>
+        <v>123</v>
       </c>
     </row>
     <row r="424" spans="1:18">
@@ -22549,7 +22549,7 @@
         <v>1</v>
       </c>
       <c r="Q424">
-        <v>131</v>
+        <v>124</v>
       </c>
       <c r="R424">
         <v>12</v>
@@ -22602,7 +22602,7 @@
         <v>0</v>
       </c>
       <c r="Q425">
-        <v>131</v>
+        <v>124</v>
       </c>
     </row>
     <row r="426" spans="1:18">
@@ -22652,7 +22652,7 @@
         <v>1</v>
       </c>
       <c r="Q426">
-        <v>132</v>
+        <v>125</v>
       </c>
       <c r="R426">
         <v>18</v>
@@ -22702,7 +22702,7 @@
         <v>0</v>
       </c>
       <c r="Q427">
-        <v>132</v>
+        <v>125</v>
       </c>
     </row>
     <row r="428" spans="1:18">
@@ -22749,7 +22749,7 @@
         <v>0</v>
       </c>
       <c r="Q428">
-        <v>132</v>
+        <v>125</v>
       </c>
     </row>
     <row r="429" spans="1:18">
@@ -22796,7 +22796,7 @@
         <v>0</v>
       </c>
       <c r="Q429">
-        <v>132</v>
+        <v>125</v>
       </c>
     </row>
     <row r="430" spans="1:18">
@@ -22843,7 +22843,7 @@
         <v>0</v>
       </c>
       <c r="Q430">
-        <v>132</v>
+        <v>125</v>
       </c>
     </row>
     <row r="431" spans="1:18">
@@ -22890,7 +22890,7 @@
         <v>0</v>
       </c>
       <c r="Q431">
-        <v>132</v>
+        <v>125</v>
       </c>
     </row>
     <row r="432" spans="1:18">
@@ -22940,7 +22940,7 @@
         <v>1</v>
       </c>
       <c r="Q432">
-        <v>133</v>
+        <v>126</v>
       </c>
       <c r="R432">
         <v>0</v>
@@ -22993,7 +22993,7 @@
         <v>1</v>
       </c>
       <c r="Q433">
-        <v>134</v>
+        <v>127</v>
       </c>
       <c r="R433">
         <v>24</v>
@@ -23043,7 +23043,7 @@
         <v>0</v>
       </c>
       <c r="Q434">
-        <v>134</v>
+        <v>127</v>
       </c>
     </row>
     <row r="435" spans="1:18">
@@ -23093,7 +23093,7 @@
         <v>1</v>
       </c>
       <c r="Q435">
-        <v>135</v>
+        <v>128</v>
       </c>
       <c r="R435">
         <v>21</v>
@@ -23146,7 +23146,7 @@
         <v>0</v>
       </c>
       <c r="Q436">
-        <v>135</v>
+        <v>128</v>
       </c>
     </row>
     <row r="437" spans="1:18">
@@ -23193,7 +23193,7 @@
         <v>0</v>
       </c>
       <c r="Q437">
-        <v>135</v>
+        <v>128</v>
       </c>
     </row>
     <row r="438" spans="1:18">
@@ -23240,7 +23240,7 @@
         <v>0</v>
       </c>
       <c r="Q438">
-        <v>135</v>
+        <v>128</v>
       </c>
     </row>
     <row r="439" spans="1:18">
@@ -23287,7 +23287,7 @@
         <v>0</v>
       </c>
       <c r="Q439">
-        <v>135</v>
+        <v>128</v>
       </c>
     </row>
     <row r="440" spans="1:18">
@@ -23337,7 +23337,7 @@
         <v>1</v>
       </c>
       <c r="Q440">
-        <v>136</v>
+        <v>129</v>
       </c>
       <c r="R440">
         <v>13</v>
@@ -23387,7 +23387,7 @@
         <v>0</v>
       </c>
       <c r="Q441">
-        <v>136</v>
+        <v>129</v>
       </c>
     </row>
     <row r="442" spans="1:18">
@@ -23434,7 +23434,7 @@
         <v>0</v>
       </c>
       <c r="Q442">
-        <v>136</v>
+        <v>129</v>
       </c>
     </row>
     <row r="443" spans="1:18">
@@ -23481,7 +23481,7 @@
         <v>0</v>
       </c>
       <c r="Q443">
-        <v>136</v>
+        <v>129</v>
       </c>
     </row>
     <row r="444" spans="1:18">
@@ -23528,7 +23528,7 @@
         <v>0</v>
       </c>
       <c r="Q444">
-        <v>136</v>
+        <v>129</v>
       </c>
     </row>
     <row r="445" spans="1:18">
@@ -23575,7 +23575,7 @@
         <v>0</v>
       </c>
       <c r="Q445">
-        <v>136</v>
+        <v>129</v>
       </c>
     </row>
     <row r="446" spans="1:18">
@@ -23622,7 +23622,7 @@
         <v>0</v>
       </c>
       <c r="Q446">
-        <v>136</v>
+        <v>129</v>
       </c>
     </row>
     <row r="447" spans="1:18">
@@ -23669,7 +23669,7 @@
         <v>0</v>
       </c>
       <c r="Q447">
-        <v>136</v>
+        <v>129</v>
       </c>
     </row>
     <row r="448" spans="1:18">
@@ -23716,7 +23716,7 @@
         <v>0</v>
       </c>
       <c r="Q448">
-        <v>136</v>
+        <v>129</v>
       </c>
     </row>
     <row r="449" spans="1:18">
@@ -23766,7 +23766,7 @@
         <v>1</v>
       </c>
       <c r="Q449">
-        <v>137</v>
+        <v>130</v>
       </c>
       <c r="R449">
         <v>16</v>
@@ -23816,7 +23816,7 @@
         <v>0</v>
       </c>
       <c r="Q450">
-        <v>137</v>
+        <v>130</v>
       </c>
     </row>
     <row r="451" spans="1:18">
@@ -23863,7 +23863,7 @@
         <v>0</v>
       </c>
       <c r="Q451">
-        <v>137</v>
+        <v>130</v>
       </c>
     </row>
     <row r="452" spans="1:18">
@@ -23910,7 +23910,7 @@
         <v>0</v>
       </c>
       <c r="Q452">
-        <v>137</v>
+        <v>130</v>
       </c>
     </row>
     <row r="453" spans="1:18">
@@ -23960,7 +23960,7 @@
         <v>1</v>
       </c>
       <c r="Q453">
-        <v>138</v>
+        <v>131</v>
       </c>
       <c r="R453">
         <v>6</v>
@@ -24007,7 +24007,7 @@
         <v>0</v>
       </c>
       <c r="Q454">
-        <v>138</v>
+        <v>131</v>
       </c>
     </row>
     <row r="455" spans="1:18">
@@ -24054,7 +24054,7 @@
         <v>0</v>
       </c>
       <c r="Q455">
-        <v>138</v>
+        <v>131</v>
       </c>
     </row>
     <row r="456" spans="1:18">
@@ -24101,7 +24101,7 @@
         <v>0</v>
       </c>
       <c r="Q456">
-        <v>138</v>
+        <v>131</v>
       </c>
     </row>
     <row r="457" spans="1:18">
@@ -24148,7 +24148,7 @@
         <v>0</v>
       </c>
       <c r="Q457">
-        <v>138</v>
+        <v>131</v>
       </c>
     </row>
     <row r="458" spans="1:18">
@@ -24198,7 +24198,7 @@
         <v>0</v>
       </c>
       <c r="Q458">
-        <v>138</v>
+        <v>131</v>
       </c>
     </row>
     <row r="459" spans="1:18">
@@ -24248,7 +24248,7 @@
         <v>1</v>
       </c>
       <c r="Q459">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="R459">
         <v>17</v>
@@ -24301,7 +24301,7 @@
         <v>1</v>
       </c>
       <c r="Q460">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="R460">
         <v>17</v>
@@ -24354,7 +24354,7 @@
         <v>0</v>
       </c>
       <c r="Q461">
-        <v>140</v>
+        <v>133</v>
       </c>
     </row>
     <row r="462" spans="1:18">
@@ -24404,7 +24404,7 @@
         <v>1</v>
       </c>
       <c r="Q462">
-        <v>141</v>
+        <v>134</v>
       </c>
       <c r="R462">
         <v>15</v>
@@ -24454,7 +24454,7 @@
         <v>0</v>
       </c>
       <c r="Q463">
-        <v>141</v>
+        <v>134</v>
       </c>
     </row>
     <row r="464" spans="1:18">
@@ -24504,7 +24504,7 @@
         <v>1</v>
       </c>
       <c r="Q464">
-        <v>142</v>
+        <v>135</v>
       </c>
       <c r="R464">
         <v>12</v>
@@ -24554,7 +24554,7 @@
         <v>0</v>
       </c>
       <c r="Q465">
-        <v>142</v>
+        <v>135</v>
       </c>
     </row>
     <row r="466" spans="1:18">
@@ -24601,7 +24601,7 @@
         <v>0</v>
       </c>
       <c r="Q466">
-        <v>142</v>
+        <v>135</v>
       </c>
     </row>
     <row r="467" spans="1:18">
@@ -24651,7 +24651,7 @@
         <v>1</v>
       </c>
       <c r="Q467">
-        <v>143</v>
+        <v>136</v>
       </c>
       <c r="R467">
         <v>22</v>
@@ -24704,7 +24704,7 @@
         <v>0</v>
       </c>
       <c r="Q468">
-        <v>143</v>
+        <v>136</v>
       </c>
     </row>
     <row r="469" spans="1:18">
@@ -24754,7 +24754,7 @@
         <v>1</v>
       </c>
       <c r="Q469">
-        <v>144</v>
+        <v>137</v>
       </c>
       <c r="R469">
         <v>13</v>
@@ -24804,7 +24804,7 @@
         <v>0</v>
       </c>
       <c r="Q470">
-        <v>144</v>
+        <v>137</v>
       </c>
     </row>
     <row r="471" spans="1:18">
@@ -24848,7 +24848,7 @@
         <v>0</v>
       </c>
       <c r="Q471">
-        <v>144</v>
+        <v>137</v>
       </c>
     </row>
     <row r="472" spans="1:18">
@@ -24895,7 +24895,7 @@
         <v>0</v>
       </c>
       <c r="Q472">
-        <v>144</v>
+        <v>137</v>
       </c>
     </row>
     <row r="473" spans="1:18">
@@ -24942,7 +24942,7 @@
         <v>0</v>
       </c>
       <c r="Q473">
-        <v>144</v>
+        <v>137</v>
       </c>
     </row>
     <row r="474" spans="1:18">
@@ -24992,7 +24992,7 @@
         <v>1</v>
       </c>
       <c r="Q474">
-        <v>145</v>
+        <v>138</v>
       </c>
       <c r="R474">
         <v>13</v>
@@ -25042,7 +25042,7 @@
         <v>0</v>
       </c>
       <c r="Q475">
-        <v>145</v>
+        <v>138</v>
       </c>
     </row>
     <row r="476" spans="1:18">
@@ -25089,7 +25089,7 @@
         <v>0</v>
       </c>
       <c r="Q476">
-        <v>145</v>
+        <v>138</v>
       </c>
     </row>
     <row r="477" spans="1:18">
@@ -25136,7 +25136,7 @@
         <v>0</v>
       </c>
       <c r="Q477">
-        <v>145</v>
+        <v>138</v>
       </c>
     </row>
     <row r="478" spans="1:18">
@@ -25183,7 +25183,7 @@
         <v>0</v>
       </c>
       <c r="Q478">
-        <v>145</v>
+        <v>138</v>
       </c>
     </row>
     <row r="479" spans="1:18">
@@ -25233,7 +25233,7 @@
         <v>1</v>
       </c>
       <c r="Q479">
-        <v>146</v>
+        <v>139</v>
       </c>
       <c r="R479">
         <v>19</v>
@@ -25286,7 +25286,7 @@
         <v>0</v>
       </c>
       <c r="Q480">
-        <v>146</v>
+        <v>139</v>
       </c>
     </row>
     <row r="481" spans="1:18">
@@ -25336,7 +25336,7 @@
         <v>1</v>
       </c>
       <c r="Q481">
-        <v>147</v>
+        <v>140</v>
       </c>
       <c r="R481">
         <v>9</v>
@@ -25386,7 +25386,7 @@
         <v>0</v>
       </c>
       <c r="Q482">
-        <v>147</v>
+        <v>140</v>
       </c>
     </row>
     <row r="483" spans="1:18">
@@ -25433,7 +25433,7 @@
         <v>0</v>
       </c>
       <c r="Q483">
-        <v>147</v>
+        <v>140</v>
       </c>
     </row>
     <row r="484" spans="1:18">
@@ -25480,7 +25480,7 @@
         <v>0</v>
       </c>
       <c r="Q484">
-        <v>147</v>
+        <v>140</v>
       </c>
     </row>
     <row r="485" spans="1:18">
@@ -25530,7 +25530,7 @@
         <v>1</v>
       </c>
       <c r="Q485">
-        <v>148</v>
+        <v>141</v>
       </c>
       <c r="R485">
         <v>22</v>
@@ -25583,7 +25583,7 @@
         <v>0</v>
       </c>
       <c r="Q486">
-        <v>148</v>
+        <v>141</v>
       </c>
     </row>
     <row r="487" spans="1:18">
@@ -25633,7 +25633,7 @@
         <v>1</v>
       </c>
       <c r="Q487">
-        <v>149</v>
+        <v>142</v>
       </c>
       <c r="R487">
         <v>15</v>
@@ -25683,7 +25683,7 @@
         <v>0</v>
       </c>
       <c r="Q488">
-        <v>149</v>
+        <v>142</v>
       </c>
     </row>
     <row r="489" spans="1:18">
@@ -25733,7 +25733,7 @@
         <v>1</v>
       </c>
       <c r="Q489">
-        <v>150</v>
+        <v>143</v>
       </c>
       <c r="R489">
         <v>9</v>
@@ -25786,7 +25786,7 @@
         <v>0</v>
       </c>
       <c r="Q490">
-        <v>150</v>
+        <v>143</v>
       </c>
     </row>
     <row r="491" spans="1:18">
@@ -25836,7 +25836,7 @@
         <v>1</v>
       </c>
       <c r="Q491">
-        <v>151</v>
+        <v>144</v>
       </c>
       <c r="R491">
         <v>12</v>
@@ -25886,7 +25886,7 @@
         <v>0</v>
       </c>
       <c r="Q492">
-        <v>151</v>
+        <v>144</v>
       </c>
     </row>
     <row r="493" spans="1:18">
@@ -25930,7 +25930,7 @@
         <v>0</v>
       </c>
       <c r="Q493">
-        <v>151</v>
+        <v>144</v>
       </c>
     </row>
     <row r="494" spans="1:18">
@@ -25977,7 +25977,7 @@
         <v>0</v>
       </c>
       <c r="Q494">
-        <v>151</v>
+        <v>144</v>
       </c>
     </row>
     <row r="495" spans="1:18">
@@ -26024,7 +26024,7 @@
         <v>0</v>
       </c>
       <c r="Q495">
-        <v>151</v>
+        <v>144</v>
       </c>
     </row>
     <row r="496" spans="1:18">
@@ -26074,7 +26074,7 @@
         <v>1</v>
       </c>
       <c r="Q496">
-        <v>152</v>
+        <v>145</v>
       </c>
       <c r="R496">
         <v>10</v>
@@ -26127,7 +26127,7 @@
         <v>1</v>
       </c>
       <c r="Q497">
-        <v>153</v>
+        <v>146</v>
       </c>
       <c r="R497">
         <v>20</v>
@@ -26180,7 +26180,7 @@
         <v>0</v>
       </c>
       <c r="Q498">
-        <v>153</v>
+        <v>146</v>
       </c>
     </row>
     <row r="499" spans="1:18">
@@ -26230,7 +26230,7 @@
         <v>1</v>
       </c>
       <c r="Q499">
-        <v>154</v>
+        <v>147</v>
       </c>
       <c r="R499">
         <v>21</v>
@@ -26280,7 +26280,7 @@
         <v>0</v>
       </c>
       <c r="Q500">
-        <v>154</v>
+        <v>147</v>
       </c>
     </row>
     <row r="501" spans="1:18">
@@ -26327,7 +26327,7 @@
         <v>0</v>
       </c>
       <c r="Q501">
-        <v>154</v>
+        <v>147</v>
       </c>
     </row>
     <row r="502" spans="1:18">
@@ -26374,7 +26374,7 @@
         <v>0</v>
       </c>
       <c r="Q502">
-        <v>154</v>
+        <v>147</v>
       </c>
     </row>
     <row r="503" spans="1:18">
@@ -26421,7 +26421,7 @@
         <v>0</v>
       </c>
       <c r="Q503">
-        <v>154</v>
+        <v>147</v>
       </c>
     </row>
     <row r="504" spans="1:18">
@@ -26471,7 +26471,7 @@
         <v>1</v>
       </c>
       <c r="Q504">
-        <v>155</v>
+        <v>148</v>
       </c>
       <c r="R504">
         <v>18</v>
@@ -26524,7 +26524,7 @@
         <v>0</v>
       </c>
       <c r="Q505">
-        <v>155</v>
+        <v>148</v>
       </c>
     </row>
     <row r="506" spans="1:18">
@@ -26574,7 +26574,7 @@
         <v>1</v>
       </c>
       <c r="Q506">
-        <v>156</v>
+        <v>149</v>
       </c>
       <c r="R506">
         <v>13</v>
@@ -26624,7 +26624,7 @@
         <v>0</v>
       </c>
       <c r="Q507">
-        <v>156</v>
+        <v>149</v>
       </c>
     </row>
     <row r="508" spans="1:18">
@@ -26671,7 +26671,7 @@
         <v>0</v>
       </c>
       <c r="Q508">
-        <v>156</v>
+        <v>149</v>
       </c>
     </row>
     <row r="509" spans="1:18">
@@ -26718,7 +26718,7 @@
         <v>0</v>
       </c>
       <c r="Q509">
-        <v>156</v>
+        <v>149</v>
       </c>
     </row>
     <row r="510" spans="1:18">
@@ -26768,7 +26768,7 @@
         <v>1</v>
       </c>
       <c r="Q510">
-        <v>157</v>
+        <v>150</v>
       </c>
       <c r="R510">
         <v>14</v>
@@ -26818,7 +26818,7 @@
         <v>0</v>
       </c>
       <c r="Q511">
-        <v>157</v>
+        <v>150</v>
       </c>
     </row>
     <row r="512" spans="1:18">
@@ -26865,7 +26865,7 @@
         <v>0</v>
       </c>
       <c r="Q512">
-        <v>157</v>
+        <v>150</v>
       </c>
     </row>
     <row r="513" spans="1:18">
@@ -26915,7 +26915,7 @@
         <v>1</v>
       </c>
       <c r="Q513">
-        <v>158</v>
+        <v>151</v>
       </c>
       <c r="R513">
         <v>11</v>
@@ -26968,7 +26968,7 @@
         <v>0</v>
       </c>
       <c r="Q514">
-        <v>158</v>
+        <v>151</v>
       </c>
     </row>
     <row r="515" spans="1:18">
@@ -27018,7 +27018,7 @@
         <v>1</v>
       </c>
       <c r="Q515">
-        <v>159</v>
+        <v>152</v>
       </c>
       <c r="R515">
         <v>8</v>
@@ -27071,7 +27071,7 @@
         <v>1</v>
       </c>
       <c r="Q516">
-        <v>160</v>
+        <v>153</v>
       </c>
       <c r="R516">
         <v>21</v>
@@ -27124,7 +27124,7 @@
         <v>0</v>
       </c>
       <c r="Q517">
-        <v>160</v>
+        <v>153</v>
       </c>
     </row>
     <row r="518" spans="1:18">
@@ -27174,7 +27174,7 @@
         <v>1</v>
       </c>
       <c r="Q518">
-        <v>161</v>
+        <v>154</v>
       </c>
       <c r="R518">
         <v>20</v>
@@ -27221,7 +27221,7 @@
         <v>0</v>
       </c>
       <c r="Q519">
-        <v>161</v>
+        <v>154</v>
       </c>
     </row>
     <row r="520" spans="1:18">
@@ -27268,7 +27268,7 @@
         <v>0</v>
       </c>
       <c r="Q520">
-        <v>161</v>
+        <v>154</v>
       </c>
     </row>
     <row r="521" spans="1:18">
@@ -27315,7 +27315,7 @@
         <v>0</v>
       </c>
       <c r="Q521">
-        <v>161</v>
+        <v>154</v>
       </c>
     </row>
     <row r="522" spans="1:18">
@@ -27362,7 +27362,7 @@
         <v>0</v>
       </c>
       <c r="Q522">
-        <v>161</v>
+        <v>154</v>
       </c>
     </row>
     <row r="523" spans="1:18">
@@ -27409,7 +27409,7 @@
         <v>0</v>
       </c>
       <c r="Q523">
-        <v>161</v>
+        <v>154</v>
       </c>
     </row>
     <row r="524" spans="1:18">
@@ -27456,7 +27456,7 @@
         <v>0</v>
       </c>
       <c r="Q524">
-        <v>161</v>
+        <v>154</v>
       </c>
     </row>
     <row r="525" spans="1:18">
@@ -27503,7 +27503,7 @@
         <v>0</v>
       </c>
       <c r="Q525">
-        <v>161</v>
+        <v>154</v>
       </c>
     </row>
     <row r="526" spans="1:18">
@@ -27550,7 +27550,7 @@
         <v>0</v>
       </c>
       <c r="Q526">
-        <v>161</v>
+        <v>154</v>
       </c>
     </row>
     <row r="527" spans="1:18">
@@ -27600,7 +27600,7 @@
         <v>1</v>
       </c>
       <c r="Q527">
-        <v>162</v>
+        <v>155</v>
       </c>
       <c r="R527">
         <v>4</v>
@@ -27653,7 +27653,7 @@
         <v>1</v>
       </c>
       <c r="Q528">
-        <v>163</v>
+        <v>156</v>
       </c>
       <c r="R528">
         <v>15</v>
@@ -27703,7 +27703,7 @@
         <v>0</v>
       </c>
       <c r="Q529">
-        <v>163</v>
+        <v>156</v>
       </c>
     </row>
     <row r="530" spans="1:18">
@@ -27750,7 +27750,7 @@
         <v>0</v>
       </c>
       <c r="Q530">
-        <v>163</v>
+        <v>156</v>
       </c>
     </row>
     <row r="531" spans="1:18">
@@ -27797,7 +27797,7 @@
         <v>0</v>
       </c>
       <c r="Q531">
-        <v>163</v>
+        <v>156</v>
       </c>
     </row>
     <row r="532" spans="1:18">
@@ -27844,7 +27844,7 @@
         <v>0</v>
       </c>
       <c r="Q532">
-        <v>163</v>
+        <v>156</v>
       </c>
     </row>
     <row r="533" spans="1:18">
@@ -27891,7 +27891,7 @@
         <v>0</v>
       </c>
       <c r="Q533">
-        <v>163</v>
+        <v>156</v>
       </c>
     </row>
     <row r="534" spans="1:18">
@@ -27938,7 +27938,7 @@
         <v>0</v>
       </c>
       <c r="Q534">
-        <v>163</v>
+        <v>156</v>
       </c>
     </row>
     <row r="535" spans="1:18">
@@ -27988,7 +27988,7 @@
         <v>1</v>
       </c>
       <c r="Q535">
-        <v>164</v>
+        <v>157</v>
       </c>
       <c r="R535">
         <v>1</v>
@@ -28038,7 +28038,7 @@
         <v>0</v>
       </c>
       <c r="Q536">
-        <v>164</v>
+        <v>157</v>
       </c>
     </row>
     <row r="537" spans="1:18">
@@ -28085,7 +28085,7 @@
         <v>0</v>
       </c>
       <c r="Q537">
-        <v>164</v>
+        <v>157</v>
       </c>
     </row>
     <row r="538" spans="1:18">
@@ -28132,7 +28132,7 @@
         <v>0</v>
       </c>
       <c r="Q538">
-        <v>164</v>
+        <v>157</v>
       </c>
     </row>
     <row r="539" spans="1:18">
@@ -28179,7 +28179,7 @@
         <v>0</v>
       </c>
       <c r="Q539">
-        <v>164</v>
+        <v>157</v>
       </c>
     </row>
     <row r="540" spans="1:18">
@@ -28229,7 +28229,7 @@
         <v>1</v>
       </c>
       <c r="Q540">
-        <v>165</v>
+        <v>158</v>
       </c>
       <c r="R540">
         <v>4</v>
@@ -28273,10 +28273,10 @@
         <v>1</v>
       </c>
       <c r="P541" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q541">
-        <v>166</v>
+        <v>158</v>
       </c>
     </row>
     <row r="542" spans="1:18">
@@ -28317,7 +28317,7 @@
         <v>0</v>
       </c>
       <c r="Q542">
-        <v>166</v>
+        <v>158</v>
       </c>
     </row>
   </sheetData>
